--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_24</t>
+          <t>model_38_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999548879204889</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990070243705191</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999433691277462</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997660512293258</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998864876481571</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G2" t="n">
-        <v>4.211014603219994e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009268991635277817</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I2" t="n">
-        <v>8.898449940558168e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000173746585356287</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001313656136019724</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004222304697705514</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006489233085057119</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000032808785099</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006765493172052345</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P2" t="n">
-        <v>134.1504436958437</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6263657133311</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_23</t>
+          <t>model_38_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999550176336187</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990066493736502</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999438628916515</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997661663757137</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998868598626076</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G3" t="n">
-        <v>4.19890645192394e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009272492066444412</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I3" t="n">
-        <v>8.820864460775718e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001736610696613836</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001309348571345704</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004223105389658599</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00647989695282567</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000032714448277</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006755759581343343</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P3" t="n">
-        <v>134.1562026843445</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q3" t="n">
-        <v>203.6321247018319</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_22</t>
+          <t>model_38_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999551600090876</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990062251719753</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999444111057213</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997663016937897</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998872756931719</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G4" t="n">
-        <v>4.185616326862528e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009276451802876463</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I4" t="n">
-        <v>8.734723187250885e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001735605730715856</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001304536245960724</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004223980642285147</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006469633936215038</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000032610902482</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006745059646868224</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P4" t="n">
-        <v>134.16254300283</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q4" t="n">
-        <v>203.6384650203175</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_21</t>
+          <t>model_38_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999553091333414</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999005733758194</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999450090489318</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997664221654649</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999887721661655</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G5" t="n">
-        <v>4.171696232350818e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009281038934819477</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I5" t="n">
-        <v>8.64076793786507e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001734711024488163</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001299375140365676</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000422501358150472</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006458866953538227</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000032502448479</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.006733834291448135</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P5" t="n">
-        <v>134.1692054830405</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6451275005279</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_20</t>
+          <t>model_38_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999554766971475</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990051993231293</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999456752205146</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997665979002391</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998882302919916</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G6" t="n">
-        <v>4.156054886576129e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009286027651558353</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I6" t="n">
-        <v>8.536091914952694e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001733405896153154</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001293488861454549</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000422565396496853</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006446747153856841</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000032380583893</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006721198526802869</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P6" t="n">
-        <v>134.1767183704666</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.6526403879541</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_19</t>
+          <t>model_38_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999556532538894</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990045843381783</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999464112312395</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997667671189242</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998887824278313</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G7" t="n">
-        <v>4.139574089709269e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009291768266128685</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I7" t="n">
-        <v>8.420442017094918e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001732149160816219</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001287099101909065</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004226575792773102</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006433952198850461</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00003225217899</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006707858864072659</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P7" t="n">
-        <v>134.184665118614</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q7" t="n">
-        <v>203.6605871361014</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_18</t>
+          <t>model_38_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999955840824079</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.999003885140585</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999472132629686</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997669536751697</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998893865165919</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G8" t="n">
-        <v>4.122065235853242e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009298294968750149</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I8" t="n">
-        <v>8.294418191071456e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001730763664729575</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001280108101422655</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000422721051713328</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006420331172029401</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000032115764306</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006693657961940413</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P8" t="n">
-        <v>134.1931423127298</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q8" t="n">
-        <v>203.6690643302172</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_17</t>
+          <t>model_38_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999560385748305</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990030839025259</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999480978414715</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997671408077382</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998900475466257</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G9" t="n">
-        <v>4.103606071218252e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009305774174328584</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I9" t="n">
-        <v>8.155423730750985e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001729373888468208</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001272458130771653</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004227958971016035</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006405939487084039</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000031971945578</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006678653593172032</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P9" t="n">
-        <v>134.2021186965081</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q9" t="n">
-        <v>203.6780407139955</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_16</t>
+          <t>model_38_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999562464434391</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990021646740724</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999490776190239</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997673258008065</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999890771888293</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G10" t="n">
-        <v>4.084202449044013e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009314354768447331</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I10" t="n">
-        <v>8.001470574900088e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001728000001619064</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001264075467031686</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000422822869554821</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006390776517015763</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000031820768408</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006662845104076274</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P10" t="n">
-        <v>134.2115979892639</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q10" t="n">
-        <v>203.6875200067514</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_15</t>
+          <t>model_38_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999564607387885</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990011177756353</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999501368999577</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997675378371799</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998915592153315</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G11" t="n">
-        <v>4.064198918823445e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009324127105822535</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I11" t="n">
-        <v>7.835024995169554e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001726425272427953</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001254963885972454</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000422839093663516</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006375106994257779</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000031664917245</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006646508497294099</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P11" t="n">
-        <v>134.221417618662</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.6973396361494</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_14</t>
+          <t>model_38_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999566669404381</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989998804575358</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999512900722224</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997676775610973</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998923843203209</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G12" t="n">
-        <v>4.04495089995584e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009335676927161316</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I12" t="n">
-        <v>7.653826202683338e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001725387585695588</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.000124541510811093</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004229152267687703</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006359992845873208</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000031514952409</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006630750908322197</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P12" t="n">
-        <v>134.2309121059738</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.7068341234612</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_13</t>
+          <t>model_38_3_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999568801951166</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989984844279384</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999525579936566</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997678339363314</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999893297854478</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G13" t="n">
-        <v>4.025044511790038e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009348708250667861</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I13" t="n">
-        <v>7.454596790144341e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001724226234734945</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000123484295687469</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004228752723154897</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006344323850332703</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000031359858097</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006614414851202241</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P13" t="n">
-        <v>134.2407789906621</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q13" t="n">
-        <v>203.7167010081495</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999570782307596</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989968483456355</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999539252978872</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997679427318847</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998942609980105</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G14" t="n">
-        <v>4.006558753796387e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009363980360807243</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I14" t="n">
-        <v>7.239751286872183e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001723418243487251</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001223696686087235</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004228324467733823</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006329738346722073</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000031215832175</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006599208412506751</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P14" t="n">
-        <v>134.2499855164453</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.7259075339328</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_11</t>
+          <t>model_38_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999572630091396</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989949551343583</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999554131491816</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997680273876074</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998952982327352</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G15" t="n">
-        <v>3.989310503110189e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009381652657056361</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I15" t="n">
-        <v>7.005964136245269e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001722789531368602</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001211692972496564</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004227036589892486</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006316098877558986</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000031081447899</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006584988282903798</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P15" t="n">
-        <v>134.2586141104784</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q15" t="n">
-        <v>203.7345361279659</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_10</t>
+          <t>model_38_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999574262785019</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989927707248306</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999570291057847</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997680919871345</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998964160369577</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G16" t="n">
-        <v>3.974070024810761e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009402043161152768</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I16" t="n">
-        <v>6.752047705749533e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001722309770469631</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001198756843943216</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004224645321660085</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006304022545018982</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000030962706544</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006572397835886112</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P16" t="n">
-        <v>134.2662694005167</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.7421914180042</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_9</t>
+          <t>model_38_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999575520097407</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989902312105751</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999587740837543</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997681008041723</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998976034585509</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G17" t="n">
-        <v>3.962333565561041e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009425748412010185</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I17" t="n">
-        <v>6.477858054544326e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001722244289030598</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001185015047242515</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004220543235641523</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006294706955499232</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000030871265643</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006562685662434576</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P17" t="n">
-        <v>134.2721846580621</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.7481066755495</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_8</t>
+          <t>model_38_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999576120477969</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989872502581896</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999606274653532</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997680039205937</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998988305939929</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G18" t="n">
-        <v>3.956729276558707e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009453574294042065</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I18" t="n">
-        <v>6.186634862643601e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000172296381369023</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001170813649977295</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004242020070630601</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006290253791826453</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000030827601602</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006558042918364928</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P18" t="n">
-        <v>134.2750154424868</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.7509374599742</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_7</t>
+          <t>model_38_3_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999575785617005</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989837452762476</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999625890368238</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997677213856844</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999000716076505</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G19" t="n">
-        <v>3.959855056662222e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009486291761961264</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I19" t="n">
-        <v>5.878411717887743e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001725062113911961</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001156451642850368</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004272321048974986</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0062927379229253</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000030851955127</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006560632804067513</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P19" t="n">
-        <v>134.2734360844534</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q19" t="n">
-        <v>203.7493581019408</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_6</t>
+          <t>model_38_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999574390852087</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989796443857268</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999646612632018</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997673392578369</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999013557864033</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G20" t="n">
-        <v>3.972874574943136e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000952457177488933</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I20" t="n">
-        <v>5.552801287459709e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001727900060376968</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000114159009456147</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004302442940046961</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006303074309369307</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000030953392576</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00657140923188171</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P20" t="n">
-        <v>134.2668711159869</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.7427931334744</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_5</t>
+          <t>model_38_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999571733054866</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998974875453304</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999668417784284</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997669376456236</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999027072282918</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G21" t="n">
-        <v>3.997683945361582e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009569087665737453</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I21" t="n">
-        <v>5.210175351878797e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001730882711257417</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001125950123222648</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004337155938752802</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006322724053255513</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000031146686919</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006591895506045731</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P21" t="n">
-        <v>134.2544205704062</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q21" t="n">
-        <v>203.7303425878936</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_4</t>
+          <t>model_38_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999567008540424</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989692435979765</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999690588960678</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997663192877908</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999904016450285</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G22" t="n">
-        <v>4.04178521385775e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009621658563120724</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I22" t="n">
-        <v>4.861798052700274e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001735475065458712</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001110798754433626</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000446783284787964</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006357503609010183</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000031490287969</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006628155699492482</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P22" t="n">
-        <v>134.2324779719623</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.7083999894498</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_3</t>
+          <t>model_38_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.999955942726403</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989624592251947</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999712728642215</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997653041593357</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999051914369089</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G23" t="n">
-        <v>4.112553101206702e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009684987705043551</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I23" t="n">
-        <v>4.513915634474197e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001743014113527347</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001097200865190645</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000461337121672005</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00641291907106795</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000032041653525</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006685930312495869</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P23" t="n">
-        <v>134.1977628736291</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.6736848911166</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_2</t>
+          <t>model_38_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999548169048612</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.998954420032888</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999733280276681</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997639988905631</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999061676547355</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G24" t="n">
-        <v>4.217643600341418e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009760030036428685</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I24" t="n">
-        <v>4.19098631479015e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001752707944854904</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000108590328816696</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004769831071958836</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006494338765680012</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000032860432828</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006770816212069569</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P24" t="n">
-        <v>134.1472977628479</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q24" t="n">
-        <v>203.6232197803353</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_1</t>
+          <t>model_38_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999531925385794</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989447549315406</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999975105637799</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997621898119156</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999067939612208</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G25" t="n">
-        <v>4.369271062606859e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009850249515018111</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I25" t="n">
-        <v>3.911669148486196e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001766143417789727</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001078655166319173</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004938187467242454</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006610046189405078</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000034041790124</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006891449540369998</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P25" t="n">
-        <v>134.0766585493433</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q25" t="n">
-        <v>203.5525805668308</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_38_3_0</t>
+          <t>model_38_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999509145523789</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989331079354902</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999976332909574</v>
+        <v>0.9999793340589799</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997599136371274</v>
+        <v>0.9999971937300747</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999068941781706</v>
+        <v>0.9999925431629452</v>
       </c>
       <c r="G26" t="n">
-        <v>4.581911075214312e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009958969110707987</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I26" t="n">
-        <v>3.718827046318017e-05</v>
+        <v>5.383998928268382e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001783047870673891</v>
+        <v>1.893807959661729e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001077495375258102</v>
+        <v>3.638575190614293e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0005117789048234752</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006768981515127895</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000035698507361</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007057151071950315</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P26" t="n">
-        <v>133.9816185770889</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.4575405945764</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
   </sheetData>
